--- a/Catálogo de Dados.xlsx
+++ b/Catálogo de Dados.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVP 1 MBA PUC Rio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MVP 1 MBA PUC Rio\mvp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B756407-07A6-4E54-A219-4E52B0196EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB56B5-0933-446A-B9E6-FDFECC3B8315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Catálogo de Dados" sheetId="1" r:id="rId1"/>
+    <sheet name="fatal_encounters_main" sheetId="1" r:id="rId1"/>
+    <sheet name="fatal_encounters_states_populat" sheetId="2" r:id="rId2"/>
+    <sheet name="tiroteios_per_capita_estados_an" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Campo</t>
   </si>
@@ -44,12 +46,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Tabela</t>
-  </si>
-  <si>
-    <t>Inf Tabela</t>
-  </si>
-  <si>
     <t>Domínios</t>
   </si>
   <si>
@@ -204,6 +200,120 @@
   </si>
   <si>
     <t>Fleeing/Bicycle,  Fleeing/Foot,  Fleeing/Motorcycle,  Fleeing/Vehicle,  Not fleeing,  Uncertain</t>
+  </si>
+  <si>
+    <t>0 (mulher grávida) até 107</t>
+  </si>
+  <si>
+    <t>African-American/Black, Race unspecified, European-American/White, Hispanic/Latino, Asian/Pacific Islander, Native American/Alaskan, European-American/European-American/White, Middle Eastern, African-American/Black African-American/Black Not imputed, european-American/White</t>
+  </si>
+  <si>
+    <t>Siglas dos 50 estados dos EUA</t>
+  </si>
+  <si>
+    <t>Condados dos EUA</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Vehicle, Gunshot, Tasered, Medical emergency, Beaten/Bludgeoned with instrument, Asphyxiated/Restrained, Drowned, nan, Burned/Smoke inhalation, Fell from a height, Other, Asphyxiation/Restrained, Asphyxiation/Restrain, Less-than-lethal force, Stabbed, Drug overdose, Chemical agent/Pepper spray, Undetermined, Restrain/Asphyxiation</t>
+  </si>
+  <si>
+    <t>Aparentemente o intuito do uso de força utilizado pela polícia</t>
+  </si>
+  <si>
+    <t>Pursuit, Deadly force, Suicide, Less-than-lethal force, No, Vehicle, nan, Vehic/Purs, Undetermined</t>
+  </si>
+  <si>
+    <t>Abbreviation</t>
+  </si>
+  <si>
+    <t>Sigla do estado americano</t>
+  </si>
+  <si>
+    <t>Nome por extenso do estado americano</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Tipo de estado</t>
+  </si>
+  <si>
+    <t>State, Federal district, State (Commonwealth)</t>
+  </si>
+  <si>
+    <t>Population (2015 est.)</t>
+  </si>
+  <si>
+    <t>Population (2010)</t>
+  </si>
+  <si>
+    <t>Population (2005)</t>
+  </si>
+  <si>
+    <t>Population (2000)</t>
+  </si>
+  <si>
+    <t>População estimada em 2015</t>
+  </si>
+  <si>
+    <t>População em 2010</t>
+  </si>
+  <si>
+    <t>População em 2005</t>
+  </si>
+  <si>
+    <t>População em 2000</t>
+  </si>
+  <si>
+    <t>586107 até 39144818</t>
+  </si>
+  <si>
+    <t>576412 até 38041430</t>
+  </si>
+  <si>
+    <t>509294 até 36132147</t>
+  </si>
+  <si>
+    <t>494139 até 34002756</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Contagem de encontros fatais</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>População do estado em determinado ano</t>
+  </si>
+  <si>
+    <t>tiroteios_per_capita</t>
+  </si>
+  <si>
+    <t>Encontros fatais per capita (100000 habitantes)</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>3 até 268</t>
+  </si>
+  <si>
+    <t>509294 até 39144818</t>
+  </si>
+  <si>
+    <t>0,0469 até 1,2783</t>
+  </si>
+  <si>
+    <t>2000, 2005, 2010, 2015</t>
+  </si>
+  <si>
+    <t>Ano em questão (de 5 em 5 a partir de 2000 até 2015)</t>
   </si>
 </sst>
 </file>
@@ -693,12 +803,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1054,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1178,7 @@
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1080,224 +1191,645 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF19D18-C7D9-4852-872E-A9A5E8FD0148}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88F4D85-E027-4183-9835-EEEF86970052}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
